--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>473437.3285292181</v>
+        <v>471180.3066201354</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>79.97861261893982</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15.94830397803287</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>110.0115294480441</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>194.7016335971159</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>285.012078358301</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>217.3383997960173</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>23.02457248166894</v>
+        <v>9.461970681989463</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.06882773324105</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>114.3875550887382</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,13 +1190,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>52.4736908254684</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247882</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>74.75769145492737</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>61.24973139007538</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520917</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534525</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>163.689844124971</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.9321526700473</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>214.0910471527948</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>117.6696123262805</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>74.75769145492382</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247564</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>120.6353666620227</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>70.82764119510628</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292626</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247066</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734101046</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>74.75769145491977</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>71.4936743037169</v>
+        <v>88.9321526700475</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.5769297729267</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>201.013039022725</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>53.82704427691577</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>120.6353666620234</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>135.4334972246861</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,16 +3187,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>61.60385878691238</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>126.0955237083906</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873207</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935319</v>
+        <v>178.7757248935318</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164193</v>
+        <v>87.87589738164188</v>
       </c>
       <c r="S37" t="n">
-        <v>101.4266653770003</v>
+        <v>188.7127700430364</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877638</v>
+        <v>218.4926939877637</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172075</v>
+        <v>285.1555829172074</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354226</v>
+        <v>251.0813880354225</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481856</v>
+        <v>285.4667430481855</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006318</v>
+        <v>188.7051276880636</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572793</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.779878295728</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124604</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4135,22 +4135,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
         <v>49.37728379124552</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.603060210037</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2681.039693060613</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2681.039693060613</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2681.039693060613</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2681.039693060613</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2349.976805717043</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1997.208150446929</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>1623.742392185849</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1233.603060210037</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>617.0062271882081</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>617.0062271882081</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U4" t="n">
-        <v>617.0062271882081</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V4" t="n">
-        <v>617.0062271882081</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>327.5890571512475</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1164.312709242129</v>
+        <v>1194.68376869814</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>1194.68376869814</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>836.4180700913892</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>836.4180700913892</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1927.91779947902</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1554.45204121794</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1164.312709242129</v>
+        <v>1194.68376869814</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1363086691491</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="W7" t="n">
-        <v>246.1363086691491</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1791.109440255352</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2653.645224621009</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2653.645224621009</v>
+        <v>2526.577416610597</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.010557593072</v>
+        <v>2307.942749582659</v>
       </c>
       <c r="U8" t="n">
-        <v>2181.248772231163</v>
+        <v>2054.180964220751</v>
       </c>
       <c r="V8" t="n">
-        <v>2181.248772231163</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="W8" t="n">
-        <v>2181.248772231163</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X8" t="n">
-        <v>2181.248772231163</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.109440255352</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,19 +4887,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.0633493392339</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>257.0633493392339</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>106.9467099268982</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>106.9467099268982</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>106.9467099268982</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>106.9467099268982</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>106.9467099268982</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5030,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972667</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1404.507041060939</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2383.057343890768</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3362.809616117414</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.592772497321</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216194</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549427</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494872</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763722</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089903</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468579</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5121,16 +5121,16 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5139,31 +5139,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142069</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635549</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487876</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282343</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517389</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>658.8294814682021</v>
+        <v>171.0738540998365</v>
       </c>
       <c r="C13" t="n">
-        <v>489.8932985402952</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953325</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442089</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927052</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892255</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.79607059812</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518533</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862235</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689062</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258588</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384231</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.55611102446</v>
+        <v>909.2731541783445</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.138940987499</v>
+        <v>619.8559841413839</v>
       </c>
       <c r="X13" t="n">
-        <v>1061.270525441969</v>
+        <v>391.8664332433666</v>
       </c>
       <c r="Y13" t="n">
-        <v>840.4779462984418</v>
+        <v>171.0738540998365</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,10 +5261,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5279,22 +5279,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2006.065164440651</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.613856788637</v>
+        <v>260.9043113423045</v>
       </c>
       <c r="C16" t="n">
-        <v>245.6776738607301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
         <v>95.56103444839442</v>
@@ -5440,7 +5440,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,7 +5449,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1577.410141987875</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1322.725653781989</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>1033.308483745028</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X16" t="n">
-        <v>817.0549007624068</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y16" t="n">
-        <v>596.2623216188767</v>
+        <v>260.9043113423045</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5519,22 +5519,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3888.072124968687</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,7 +5622,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5631,7 +5631,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>529.0120128405561</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C19" t="n">
-        <v>410.1538185715858</v>
+        <v>171.0738540998326</v>
       </c>
       <c r="D19" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,7 +5686,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1220.870226851287</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W19" t="n">
-        <v>931.4530568143259</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X19" t="n">
-        <v>931.4530568143259</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y19" t="n">
-        <v>710.6604776707958</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5729,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1339.447785386687</v>
+        <v>1557.60335981148</v>
       </c>
       <c r="M20" t="n">
-        <v>2317.998088216515</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>3297.750360443162</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.722831322499</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973178</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161908</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549396</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494841</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763691</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089872</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468547</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.10246054955</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142066</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635546</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313401</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447817</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216074</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517386</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>481.6968904858346</v>
+        <v>217.4149401676093</v>
       </c>
       <c r="C22" t="n">
-        <v>481.6968904858346</v>
+        <v>217.4149401676093</v>
       </c>
       <c r="D22" t="n">
-        <v>481.6968904858346</v>
+        <v>217.4149401676093</v>
       </c>
       <c r="E22" t="n">
-        <v>481.6968904858346</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>334.8069429879242</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>167.1041063626432</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>167.1041063626432</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208125</v>
+        <v>909.2731541783397</v>
       </c>
       <c r="W22" t="n">
-        <v>709.686441383852</v>
+        <v>619.8559841413792</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858346</v>
+        <v>619.8559841413792</v>
       </c>
       <c r="Y22" t="n">
-        <v>481.6968904858346</v>
+        <v>399.063404997849</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001588</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277722</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1014.851249206424</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1465.885462454831</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>1999.417367126754</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353399</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232735</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.49719767968</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973128</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161858</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549346</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494791</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763641</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089822</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468496</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193578</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320222</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454337</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008791</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426845</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902947</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549546</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142061</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635541</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313396</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447812</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216069</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487868</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282335</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517381</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>409.4810578558179</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>409.4810578558179</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>409.4810578558179</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558179</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558179</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6145,52 +6145,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953297</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442057</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927012</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892249</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518527</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952186</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="R25" t="n">
-        <v>1884.127633474686</v>
+        <v>1866.513008862228</v>
       </c>
       <c r="S25" t="n">
-        <v>1692.441749301513</v>
+        <v>1674.827124689054</v>
       </c>
       <c r="T25" t="n">
-        <v>1470.675133871039</v>
+        <v>1453.06050925858</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.572266996683</v>
+        <v>1163.957642384224</v>
       </c>
       <c r="V25" t="n">
-        <v>926.8877787907958</v>
+        <v>909.2731541783368</v>
       </c>
       <c r="W25" t="n">
-        <v>637.4706087538352</v>
+        <v>619.855984141376</v>
       </c>
       <c r="X25" t="n">
-        <v>409.4810578558179</v>
+        <v>391.8664332433586</v>
       </c>
       <c r="Y25" t="n">
-        <v>409.4810578558179</v>
+        <v>171.0738540998285</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>1941.005908766399</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6306,7 +6306,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6315,34 +6315,34 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282341</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>709.4168978689406</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C28" t="n">
-        <v>540.4807149410336</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,16 +6397,16 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
         <v>1764.65758193153</v>
@@ -6415,19 +6415,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1339.847492740728</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1339.847492740728</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W28" t="n">
-        <v>1339.847492740728</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X28" t="n">
-        <v>1111.85794184271</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y28" t="n">
-        <v>891.0653626991804</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6464,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3851.472756726941</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4246.247123084118</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>536.5812623108403</v>
+        <v>217.41494016761</v>
       </c>
       <c r="C31" t="n">
-        <v>536.5812623108403</v>
+        <v>217.41494016761</v>
       </c>
       <c r="D31" t="n">
-        <v>536.5812623108403</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>388.6681687284471</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6622,10 +6622,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6637,34 +6637,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1819.541953756535</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1597.775338326061</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1308.672471451705</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1053.987983245818</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W31" t="n">
-        <v>764.5708132088577</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X31" t="n">
-        <v>536.5812623108403</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="Y31" t="n">
-        <v>536.5812623108403</v>
+        <v>399.0634049978497</v>
       </c>
     </row>
     <row r="32">
@@ -6689,46 +6689,46 @@
         <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6789,28 +6789,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>452.5901955154782</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C34" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6865,13 +6865,13 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570256</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X34" t="n">
-        <v>673.3827746590083</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.5901955154782</v>
+        <v>264.4972173763013</v>
       </c>
     </row>
     <row r="35">
@@ -6914,49 +6914,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K35" t="n">
-        <v>888.4135721382786</v>
+        <v>785.665188117619</v>
       </c>
       <c r="L35" t="n">
-        <v>1339.447785386687</v>
+        <v>1236.699401366027</v>
       </c>
       <c r="M35" t="n">
-        <v>2317.998088216516</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N35" t="n">
-        <v>3297.750360443163</v>
+        <v>2749.983578264598</v>
       </c>
       <c r="O35" t="n">
-        <v>3800.7228313225</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973176</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161906</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549394</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494839</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763689</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,52 +7014,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.10246054955</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142066</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635546</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313401</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447817</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216074</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487872</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517386</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.4302928425584</v>
       </c>
       <c r="C37" t="n">
         <v>95.56103444839442</v>
@@ -7093,13 +7093,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308513</v>
+        <v>141.7293596308514</v>
       </c>
       <c r="K37" t="n">
-        <v>346.762235315249</v>
+        <v>346.7622353152491</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992665</v>
+        <v>664.3677264992666</v>
       </c>
       <c r="M37" t="n">
         <v>1009.570464834337</v>
@@ -7108,7 +7108,7 @@
         <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931657</v>
+        <v>1652.399825931658</v>
       </c>
       <c r="P37" t="n">
         <v>1886.053019100838</v>
@@ -7120,25 +7120,25 @@
         <v>1875.945475280145</v>
       </c>
       <c r="S37" t="n">
-        <v>1773.494298131659</v>
+        <v>1685.326515640714</v>
       </c>
       <c r="T37" t="n">
-        <v>1552.794607234928</v>
+        <v>1464.626824743983</v>
       </c>
       <c r="U37" t="n">
-        <v>1264.758664894315</v>
+        <v>1176.59088240337</v>
       </c>
       <c r="V37" t="n">
-        <v>1011.141101222171</v>
+        <v>922.973318731226</v>
       </c>
       <c r="W37" t="n">
-        <v>722.7908557189531</v>
+        <v>634.6230732280083</v>
       </c>
       <c r="X37" t="n">
-        <v>495.8682293546786</v>
+        <v>444.0118331390552</v>
       </c>
       <c r="Y37" t="n">
-        <v>276.1425747448913</v>
+        <v>444.0118331390552</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>785.665188117619</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2628.734306600802</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3175.513123659583</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7199,25 +7199,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.070220408989</v>
@@ -7251,52 +7251,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320235</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M39" t="n">
         <v>1241.476988454339</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430899</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932521</v>
+        <v>364.4578361932529</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160444</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819761</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750059</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7479,7 +7479,7 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430902</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160452</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819763</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,7 +7570,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
         <v>800.7468040499224</v>
@@ -7588,13 +7588,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2749.983578264599</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7679,19 +7679,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7746,7 +7746,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,7 +7755,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
         <v>2043.809373447819</v>
@@ -7764,7 +7764,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932524</v>
@@ -7804,13 +7804,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714827</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>338.5992815305686</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,13 +8702,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8927,25 +8927,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>83.16722118949338</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9167,25 +9167,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>124.0833809162816</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,28 +9401,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>103.7862464855133</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>29.61882225792363</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.822542117224657e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>231.5010718068749</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.917133532624575e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>172.4995987156027</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10112,28 +10112,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>189.7998007892644</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>161.0524397463285</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>251.1867816683974</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>103.7862464855144</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>297.2174916798493</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,22 +10823,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>123.4719563470504</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,10 +11306,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476831</v>
+        <v>231.5010718068653</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.48912964370047</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>164.4599239989618</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3.556976973656816</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>11.6186082362423</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>49.5772087723473</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>73.85778156328854</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>25.79859598454645</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>25.52477921473181</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270175</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.3524204098382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>17.43847836633043</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>85.19879918288784</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>164.757609075179</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>27.98010635618894</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>54.33552810675586</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,16 +25075,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>105.6429623117155</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>92.48912964370416</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102224</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.559217729807</v>
+        <v>147.5592177298069</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581638</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
         <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706228</v>
+        <v>164.9695529706227</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259154</v>
+        <v>143.6987596259153</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143268</v>
+        <v>95.29616512143264</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>87.28610466603615</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>35.94827241256811</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.5283980636893</v>
       </c>
     </row>
     <row r="38">
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.913225216616411e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1049768.224295667</v>
+        <v>1049768.224295666</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1049768.224295667</v>
+        <v>1049768.224295666</v>
       </c>
     </row>
     <row r="11">
@@ -26314,10 +26314,10 @@
         <v>369468.7964389274</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="E2" t="n">
         <v>357373.608198285</v>
@@ -26326,25 +26326,25 @@
         <v>357373.608198285</v>
       </c>
       <c r="G2" t="n">
+        <v>357373.6081982848</v>
+      </c>
+      <c r="H2" t="n">
         <v>357373.608198285</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>357373.608198285</v>
+      </c>
+      <c r="J2" t="n">
+        <v>357373.608198285</v>
+      </c>
+      <c r="K2" t="n">
+        <v>357373.6081982848</v>
+      </c>
+      <c r="L2" t="n">
         <v>357373.6081982849</v>
       </c>
-      <c r="I2" t="n">
-        <v>357373.6081982848</v>
-      </c>
-      <c r="J2" t="n">
-        <v>357373.6081982849</v>
-      </c>
-      <c r="K2" t="n">
-        <v>357373.608198285</v>
-      </c>
-      <c r="L2" t="n">
-        <v>357373.6081982848</v>
-      </c>
       <c r="M2" t="n">
-        <v>357645.5734859473</v>
+        <v>357645.573485947</v>
       </c>
       <c r="N2" t="n">
         <v>369468.7964389278</v>
@@ -26353,7 +26353,7 @@
         <v>369468.7964389278</v>
       </c>
       <c r="P2" t="n">
-        <v>369468.7964389277</v>
+        <v>369468.7964389278</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.413993407</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925943</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696691</v>
+        <v>130487.3190696689</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414973</v>
+        <v>36735.1050641497</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="F4" t="n">
         <v>18148.49231918998</v>
-      </c>
-      <c r="F4" t="n">
-        <v>18148.49231918992</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918997</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231919007</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811453</v>
+        <v>18496.05294811459</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740903</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26485,19 +26485,19 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371361</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96472.31657955461</v>
@@ -26522,46 +26522,46 @@
         <v>-486706.8476961545</v>
       </c>
       <c r="C6" t="n">
-        <v>103261.0315183898</v>
+        <v>103261.0315183902</v>
       </c>
       <c r="D6" t="n">
-        <v>103261.0315183899</v>
+        <v>103261.03151839</v>
       </c>
       <c r="E6" t="n">
-        <v>-484535.8163680255</v>
+        <v>-484603.0118582514</v>
       </c>
       <c r="F6" t="n">
-        <v>242841.5976253814</v>
+        <v>242774.4021351559</v>
       </c>
       <c r="G6" t="n">
-        <v>242841.5976253814</v>
+        <v>242774.4021351554</v>
       </c>
       <c r="H6" t="n">
-        <v>242841.5976253813</v>
+        <v>242774.4021351559</v>
       </c>
       <c r="I6" t="n">
-        <v>242841.5976253812</v>
+        <v>242774.4021351567</v>
       </c>
       <c r="J6" t="n">
-        <v>66418.37843278839</v>
+        <v>66351.18294256138</v>
       </c>
       <c r="K6" t="n">
-        <v>242841.5976253814</v>
+        <v>242774.4021351553</v>
       </c>
       <c r="L6" t="n">
-        <v>242841.5976253812</v>
+        <v>242774.4021351555</v>
       </c>
       <c r="M6" t="n">
-        <v>112189.884888609</v>
+        <v>112124.2003166479</v>
       </c>
       <c r="N6" t="n">
         <v>198795.367063267</v>
       </c>
       <c r="O6" t="n">
-        <v>235530.4721274168</v>
+        <v>235530.4721274163</v>
       </c>
       <c r="P6" t="n">
-        <v>235530.4721274163</v>
+        <v>235530.4721274167</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.650268853780388e-14</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>2.650268853780388e-14</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593296</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.650268853780388e-14</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018716</v>
+        <v>45.91888133018713</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-9.857563233868737e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26990,16 +26990,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.650268853780388e-14</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>326.8974331227716</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>38.53009859677883</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,13 +27433,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>102.1340095019748</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>57.43600972671209</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>121.8639673834104</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>131.9025689213958</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6850829073682</v>
+        <v>216.2476847070477</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.40957484157067</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>60.02815772023332</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>82.49193096686986</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179779</v>
       </c>
     </row>
     <row r="11">
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.416010943387702e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.095514021215493e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.013270411212764e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405404</v>
+        <v>1.056255288405489</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I11" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.38101186168159</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844659</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974796</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953982</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003799</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362318</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.267349057498</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095009</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099045</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746402</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781681</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563564</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806932</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451117</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345271</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502562</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798527</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752242</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026434</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138787</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233464</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837913</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.708647897024</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905538</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238308</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.44815837589848</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462212</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430534</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311876</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742007</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297387</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.317151370202</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098814</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316427</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883109</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085996</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802165</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895877</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712198</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.2475727055303</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211228</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780292</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H36" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q37" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683794</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>794.189395922901</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130687</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>622.0883370197201</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
@@ -35820,7 +35820,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
         <v>78.39423853789366</v>
@@ -35887,25 +35887,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>522.8453671356534</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L20" t="n">
-        <v>559.3763608778455</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>581.9206576708347</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509642</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407856</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>568.6923583622743</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923308</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302253</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248941</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882178</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908533</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636233</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152067</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597668</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340045</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013281</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004581</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525795</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859616</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127266</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306595</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443191</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701975</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934833</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675395</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226393</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.95707114511</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789334</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>711.4207145458292</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>742.1016362021759</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>411.846744550048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>803.4886170813089</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K35" t="n">
-        <v>440.9775330409149</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>805.2704925680682</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147163</v>
+        <v>46.63467190147166</v>
       </c>
       <c r="K37" t="n">
         <v>207.103914832725</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586035</v>
+        <v>320.8136274586036</v>
       </c>
       <c r="M37" t="n">
         <v>348.6896346818892</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230589</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>631.5249572352693</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004607</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,10 +37704,10 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>427.0116978485627</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359025</v>
+        <v>739.5540726950843</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,16 +38184,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
